--- a/23-0712 - WED - Supervised Machine Learning/23-0710 2023 NAA Camp - KNN File.xlsx
+++ b/23-0712 - WED - Supervised Machine Learning/23-0710 2023 NAA Camp - KNN File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Dropbox\___GitHubRepo\2023-NAA-Student\23-0712 - WED - Supervised Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26B2E1F-B5F4-4E91-BFA7-09DB66BE6D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF42A39-36CD-4866-80D4-0DE8F1888BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" tabRatio="519" xr2:uid="{332EF4AA-20B6-443F-A212-9DCDC32EF0BC}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="EX2 - kNN-Stand-Annotated" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -592,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -632,29 +631,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,6 +654,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5006,8 +4998,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>43544</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5983,7 +5975,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -6659,9 +6651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC5DC2-F6C4-4F42-B465-BFBC5C30B208}">
   <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6964,14 +6954,14 @@
       <c r="G18" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -7010,9 +7000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD312EE9-EB46-4082-98D1-3248888CFB5C}">
   <dimension ref="A2:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7045,10 +7033,10 @@
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -7057,7 +7045,7 @@
       <c r="J3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="14" t="s">
@@ -7077,10 +7065,10 @@
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="21"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="2"/>
       <c r="M4" s="11">
         <v>1</v>
@@ -7097,10 +7085,10 @@
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="21"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="2"/>
       <c r="M5" s="11">
         <v>2</v>
@@ -7117,10 +7105,10 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="21"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="2"/>
       <c r="M6" s="11">
         <v>3</v>
@@ -7137,10 +7125,10 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="21"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="2"/>
       <c r="M7" s="11">
         <v>4</v>
@@ -7157,10 +7145,10 @@
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="21"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="2"/>
       <c r="M8" s="2">
         <v>5</v>
@@ -7177,10 +7165,10 @@
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="21"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="2"/>
       <c r="M9" s="2">
         <v>6</v>
@@ -7197,10 +7185,10 @@
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="2"/>
       <c r="M10" s="2">
         <v>7</v>
@@ -7220,10 +7208,10 @@
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="21"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="2"/>
       <c r="M11" s="2">
         <v>8</v>
@@ -7240,10 +7228,10 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="21"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="2"/>
       <c r="M12" s="2">
         <v>9</v>
@@ -7260,10 +7248,10 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="21"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="2"/>
       <c r="M13" s="2">
         <v>10</v>
@@ -7271,7 +7259,7 @@
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <v>1500</v>
       </c>
       <c r="C14" s="5">
@@ -7280,94 +7268,90 @@
       <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="I14" s="17" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="I14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="18"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <f>AVERAGE(B4:B14)</f>
         <v>1113.7272727272727</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <f>AVERAGE(C4:C14)</f>
         <v>39.090909090909093</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="18"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <f>_xlfn.STDEV.S(B4:B14)</f>
         <v>853.69656095231994</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <f>_xlfn.STDEV.S(C4:C14)</f>
         <v>8.780142885563377</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="18"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <f>MAX(B4:B14)</f>
         <v>2300</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <f>MAX(C4:C14)</f>
         <v>58</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="18"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="15">
         <f>MIN(B4:B14)</f>
         <v>49</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="15">
         <f>MIN(C4:C14)</f>
         <v>29</v>
       </c>
@@ -7852,14 +7836,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -7900,8 +7884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CA26F7-EA49-430A-8674-9157895E7BF4}">
   <dimension ref="A2:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7935,10 +7919,10 @@
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -7947,7 +7931,7 @@
       <c r="J3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="14" t="s">
@@ -7967,11 +7951,11 @@
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="21">
         <f>(B4-$B$16)/$B$17</f>
         <v>-1.2471963943951498</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="21">
         <f>(C4-$C$16)/$C$17</f>
         <v>-0.12424730498438756</v>
       </c>
@@ -7979,12 +7963,12 @@
         <f>RANK(J4,$J$4:$J$13,1)</f>
         <v>6</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="17">
         <f>SQRT((F4-$F$14)^2+(G4-$G$14)^2)</f>
         <v>1.8318978000977777</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f>D4</f>
+        <f t="shared" ref="K4:K13" si="0">D4</f>
         <v>Yes</v>
       </c>
       <c r="M4" s="11">
@@ -8005,31 +7989,31 @@
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="25">
-        <f t="shared" ref="F5:F14" si="0">(B5-$B$16)/$B$17</f>
+      <c r="F5" s="21">
+        <f t="shared" ref="F5:F14" si="1">(B5-$B$16)/$B$17</f>
         <v>-0.51860027669948605</v>
       </c>
-      <c r="G5" s="25">
-        <f t="shared" ref="G5:G14" si="1">(C5-$C$16)/$C$17</f>
+      <c r="G5" s="21">
+        <f t="shared" ref="G5:G14" si="2">(C5-$C$16)/$C$17</f>
         <v>-0.46592739369145253</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I13" si="2">RANK(J5,$J$4:$J$13,1)</f>
+        <f t="shared" ref="I5:I13" si="3">RANK(J5,$J$4:$J$13,1)</f>
         <v>5</v>
       </c>
-      <c r="J5" s="21">
-        <f t="shared" ref="J5:J13" si="3">SQRT((F5-$F$14)^2+(G5-$G$14)^2)</f>
+      <c r="J5" s="17">
+        <f t="shared" ref="J5:J13" si="4">SQRT((F5-$F$14)^2+(G5-$G$14)^2)</f>
         <v>1.0294290802015484</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="M5" s="11">
         <v>2</v>
       </c>
       <c r="N5" s="11" t="str">
-        <f t="shared" ref="N5:N13" si="4">VLOOKUP(M5,$I$4:$K$18,3,FALSE)</f>
+        <f t="shared" ref="N5:N13" si="5">VLOOKUP(M5,$I$4:$K$18,3,FALSE)</f>
         <v>No</v>
       </c>
     </row>
@@ -8043,31 +8027,31 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
+        <f t="shared" si="1"/>
+        <v>-0.40029126080356631</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="2"/>
+        <v>0.90079296113680729</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="4"/>
+        <v>1.9094070102167726</v>
+      </c>
+      <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>-0.40029126080356631</v>
-      </c>
-      <c r="G6" s="25">
-        <f t="shared" si="1"/>
-        <v>0.90079296113680729</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J6" s="21">
-        <f t="shared" si="3"/>
-        <v>1.9094070102167726</v>
-      </c>
-      <c r="K6" s="2" t="str">
-        <f>D6</f>
         <v>Yes</v>
       </c>
       <c r="M6" s="11">
         <v>3</v>
       </c>
       <c r="N6" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8081,31 +8065,31 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="21">
+        <f t="shared" si="1"/>
+        <v>-1.1452866480293578</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="2"/>
+        <v>1.0146863240391624</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="4"/>
+        <v>2.4235476960767883</v>
+      </c>
+      <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>-1.1452866480293578</v>
-      </c>
-      <c r="G7" s="25">
-        <f t="shared" si="1"/>
-        <v>1.0146863240391624</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J7" s="21">
-        <f t="shared" si="3"/>
-        <v>2.4235476960767883</v>
-      </c>
-      <c r="K7" s="2" t="str">
-        <f>D7</f>
         <v>Yes</v>
       </c>
       <c r="M7" s="11">
         <v>4</v>
       </c>
       <c r="N7" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
@@ -8119,31 +8103,31 @@
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
+        <f t="shared" si="1"/>
+        <v>-1.1605145411644762</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="2"/>
+        <v>0.10353942082032243</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="4"/>
+        <v>1.8525415633997886</v>
+      </c>
+      <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>-1.1605145411644762</v>
-      </c>
-      <c r="G8" s="25">
-        <f t="shared" si="1"/>
-        <v>0.10353942082032243</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="3"/>
-        <v>1.8525415633997886</v>
-      </c>
-      <c r="K8" s="2" t="str">
-        <f>D8</f>
         <v>Yes</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
     </row>
@@ -8157,31 +8141,31 @@
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="21">
+        <f t="shared" si="1"/>
+        <v>-0.25035508224240077</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="2"/>
+        <v>-1.1492875711055826</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="4"/>
+        <v>0.78147900815140159</v>
+      </c>
+      <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>-0.25035508224240077</v>
-      </c>
-      <c r="G9" s="25">
-        <f t="shared" si="1"/>
-        <v>-1.1492875711055826</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J9" s="21">
-        <f t="shared" si="3"/>
-        <v>0.78147900815140159</v>
-      </c>
-      <c r="K9" s="2" t="str">
-        <f>D9</f>
         <v>No</v>
       </c>
       <c r="M9" s="2">
         <v>6</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
     </row>
@@ -8195,31 +8179,31 @@
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="21">
+        <f t="shared" si="1"/>
+        <v>0.45247075476306281</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="2"/>
+        <v>-0.12424730498438756</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="4"/>
+        <v>0.68336017741413002</v>
+      </c>
+      <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.45247075476306281</v>
-      </c>
-      <c r="G10" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.12424730498438756</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="21">
-        <f t="shared" si="3"/>
-        <v>0.68336017741413002</v>
-      </c>
-      <c r="K10" s="2" t="str">
-        <f>D10</f>
         <v>No</v>
       </c>
       <c r="M10" s="2">
         <v>7</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
       <c r="R10" t="s">
@@ -8236,31 +8220,31 @@
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="21">
+        <f t="shared" si="1"/>
+        <v>1.3895718707703475</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="2"/>
+        <v>-0.46592739369145253</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="4"/>
+        <v>0.99744863759542324</v>
+      </c>
+      <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.3895718707703475</v>
-      </c>
-      <c r="G11" s="25">
-        <f t="shared" si="1"/>
-        <v>-0.46592739369145253</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J11" s="21">
-        <f t="shared" si="3"/>
-        <v>0.99744863759542324</v>
-      </c>
-      <c r="K11" s="2" t="str">
-        <f>D11</f>
         <v>No</v>
       </c>
       <c r="M11" s="2">
         <v>8</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
     </row>
@@ -8274,31 +8258,31 @@
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
+        <f t="shared" si="1"/>
+        <v>1.272434231269437</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="2"/>
+        <v>2.1536199530627123</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="4"/>
+        <v>3.0726548825620998</v>
+      </c>
+      <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.272434231269437</v>
-      </c>
-      <c r="G12" s="25">
-        <f t="shared" si="1"/>
-        <v>2.1536199530627123</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="21">
-        <f t="shared" si="3"/>
-        <v>3.0726548825620998</v>
-      </c>
-      <c r="K12" s="2" t="str">
-        <f>D12</f>
         <v>No</v>
       </c>
       <c r="M12" s="2">
         <v>9</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Yes</v>
       </c>
     </row>
@@ -8312,36 +8296,36 @@
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="21">
+        <f t="shared" si="1"/>
+        <v>1.1552965917685263</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="2"/>
+        <v>-1.0353942082032275</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="4"/>
+        <v>0.73881726402085401</v>
+      </c>
+      <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.1552965917685263</v>
-      </c>
-      <c r="G13" s="25">
-        <f t="shared" si="1"/>
-        <v>-1.0353942082032275</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J13" s="21">
-        <f t="shared" si="3"/>
-        <v>0.73881726402085401</v>
-      </c>
-      <c r="K13" s="2" t="str">
-        <f>D13</f>
         <v>No</v>
       </c>
       <c r="M13" s="2">
         <v>10</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>No</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <v>1500</v>
       </c>
       <c r="C14" s="5">
@@ -8350,100 +8334,96 @@
       <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="25">
-        <f t="shared" si="0"/>
+      <c r="F14" s="21">
+        <f t="shared" si="1"/>
         <v>0.45247075476306281</v>
       </c>
-      <c r="G14" s="25">
-        <f t="shared" si="1"/>
+      <c r="G14" s="21">
+        <f t="shared" si="2"/>
         <v>-0.80760748239851754</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="18"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <f>AVERAGE(B4:B14)</f>
         <v>1113.7272727272727</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <f>AVERAGE(C4:C14)</f>
         <v>39.090909090909093</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="18"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <f>_xlfn.STDEV.S(B4:B14)</f>
         <v>853.69656095231994</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <f>_xlfn.STDEV.S(C4:C14)</f>
         <v>8.780142885563377</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="18"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <f>MAX(B4:B14)</f>
         <v>2300</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <f>MAX(C4:C14)</f>
         <v>58</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="18"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="15">
         <f>MIN(B4:B14)</f>
         <v>49</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="15">
         <f>MIN(C4:C14)</f>
         <v>29</v>
       </c>
